--- a/Perk_data/data/classic/classic_passive_perks.xlsx
+++ b/Perk_data/data/classic/classic_passive_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ECAD4E-4BBA-45D3-A479-A590DB92805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF4C5B9-085B-4669-9390-84358F5CEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
   </bookViews>
@@ -217,11 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -230,31 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -772,7 +747,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,141 +769,141 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C10" xr:uid="{BFF85098-BA95-4FF3-866D-32F665E210AE}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
-      <sortCondition sortBy="cellColor" ref="C1:C10" dxfId="3"/>
+      <sortCondition sortBy="cellColor" ref="C1:C10" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Perk_data/data/classic/classic_passive_perks.xlsx
+++ b/Perk_data/data/classic/classic_passive_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF4C5B9-085B-4669-9390-84358F5CEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5747CBB-1DA2-4C56-89A2-B79473B5A2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FD8951E-DB29-472A-BFC0-A522E648780D}"/>
   </bookViews>
@@ -51,15 +51,6 @@
     <t>1st-Bonus</t>
   </si>
   <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>Uncommon</t>
-  </si>
-  <si>
     <t>7.5%-BASE_STAT</t>
   </si>
   <si>
@@ -100,6 +91,15 @@
   </si>
   <si>
     <t>all_bandage</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>uncommon</t>
   </si>
 </sst>
 </file>
@@ -254,197 +254,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470DF19C-88A4-48AB-B7FA-8F2A8E3D772B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="190500"/>
-          <a:ext cx="7246620" cy="4021456"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>READ FIRST</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: #e2efda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any thing here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Note : If</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this divre</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,7 +556,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,35 +579,35 @@
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -806,43 +615,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -850,43 +659,43 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -894,10 +703,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -907,6 +716,5 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>